--- a/事务跟踪表.xlsx
+++ b/事务跟踪表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="表项" sheetId="1" r:id="rId1"/>
@@ -267,17 +267,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -286,47 +286,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -637,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -752,10 +712,10 @@
       <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>42451</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>42451</v>
       </c>
     </row>
@@ -812,7 +772,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:J7">
-    <sortCondition sortBy="cellColor" ref="B2:B7" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="B2:B7" dxfId="0"/>
     <sortCondition descending="1" ref="A2:A7"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -826,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -836,32 +796,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
